--- a/database/DemoPharmacistAPITestCase.xlsx
+++ b/database/DemoPharmacistAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>药师资质</t>
   </si>
   <si>
-    <t>quest_query_001</t>
+    <t>query_001</t>
   </si>
   <si>
     <t>查询药店药师资质</t>
@@ -96,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -138,6 +138,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -146,60 +167,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,14 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -237,16 +237,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,14 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,19 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,163 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,22 +502,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,23 +555,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,23 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,16 +615,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,115 +633,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1151,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1159,7 +1159,7 @@
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56" style="2" customWidth="1"/>
+    <col min="4" max="4" width="68.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="2" customWidth="1"/>

--- a/database/DemoPharmacistAPITestCase.xlsx
+++ b/database/DemoPharmacistAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>module</t>
   </si>
@@ -69,7 +69,7 @@
     <t>查询药店药师资质</t>
   </si>
   <si>
-    <t>http://mf-backend.lyky.xyz:8188/backend/merchant_pharmacist/info</t>
+    <t>http://mf-backend.lyky.xyz/backend/merchant_pharmacist/info</t>
   </si>
   <si>
     <t>post</t>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>200</t>
-  </si>
-  <si>
-    <t>[{"id": 1357, "shop_id": 27, "shop_name": "安徽德胜大药房-双岗店", "user_drugs_name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "diag_id": "21553344682942", "prescription_url": "upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png", "status": 4, "remark": "", "created_at": "1630463783", "user_drug": {"id": 378, "order_id": 1357, "name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "birthday": "1988-12-31", "sex": 1, "age": 33, "address": "hsajijwhhyjjm", "is_diagnosis": 0, "is_allergy": 0, "is_taboo": 1, "is_adverse": 0, "created_at": "1630463783"}, "disease": [{"order_id": 1357, "disease_id": "97648", "disease_name": "中耳炎"}]}]</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -95,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -138,29 +135,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -183,52 +159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -236,8 +166,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -246,29 +258,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,21 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -537,6 +519,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -548,15 +541,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,11 +562,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +1145,10 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1527,7 +1524,7 @@
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz:8188/backend/merchant_pharmacist/info" tooltip="http://mf-backend.lyky.xyz:8188/backend/merchant_pharmacist/info"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_pharmacist/info" tooltip="http://mf-backend.lyky.xyz/backend/merchant_pharmacist/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1540,16 +1537,14 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="378" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,7 +1565,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/database/DemoPharmacistAPITestCase.xlsx
+++ b/database/DemoPharmacistAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>module</t>
   </si>
@@ -69,7 +69,7 @@
     <t>查询药店药师资质</t>
   </si>
   <si>
-    <t>http://mf-backend.lyky.xyz/backend/merchant_pharmacist/info</t>
+    <t>/backend/merchant_pharmacist/info</t>
   </si>
   <si>
     <t>post</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>[{"id": 1357, "shop_id": 27, "shop_name": "安徽德胜大药房-双岗店", "user_drugs_name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "diag_id": "21553344682942", "prescription_url": "upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png", "status": 4, "remark": "", "created_at": "1630463783", "user_drug": {"id": 378, "order_id": 1357, "name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "birthday": "1988-12-31", "sex": 1, "age": 33, "address": "hsajijwhhyjjm", "is_diagnosis": 0, "is_allergy": 0, "is_taboo": 1, "is_adverse": 0, "created_at": "1630463783"}, "disease": [{"order_id": 1357, "disease_id": "97648", "disease_name": "中耳炎"}]}]</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -93,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -135,6 +138,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -144,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,107 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +289,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +367,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,36 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,115 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,9 +500,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,10 +556,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -545,41 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1148,7 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
@@ -1524,7 +1527,7 @@
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_pharmacist/info" tooltip="http://mf-backend.lyky.xyz/backend/merchant_pharmacist/info"/>
+    <hyperlink ref="D2" r:id="rId1" display="/backend/merchant_pharmacist/info" tooltip="http://mf-backend.lyky.xyz:8188/backend/merchant_pharmacist/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1537,14 +1540,16 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="378" customHeight="1" spans="1:1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,7 +1570,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/database/DemoPharmacistAPITestCase.xlsx
+++ b/database/DemoPharmacistAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>module</t>
   </si>
@@ -69,22 +69,34 @@
     <t>查询药店药师资质</t>
   </si>
   <si>
-    <t>/backend/merchant_pharmacist/info</t>
+    <t>backend/merchant_pharmacist/info</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"id":1,"merchant_id":31,"admin_id":31,"name":"wangbo1","card_no":"341125199308040001","register_no":"ZC202108171434","qualification_no":"ZG202108171434","company_name":"德胜连盟大药房","register_url":"upload/mf-backend-project/file/2021-08-30/174aeb0e8ac5047b3a78fbcc6450ed48.jpg","qualification_url":"upload/mf-backend-project/file/2021-09-01/a53b11cd775b4b6f98c58c787787177b.jpg","sign_url":"upload/mf-backend-project/file/2021-08-24/63a537b76c6f4301a5194629c444ec16.png","created_at":"2021-08-17 14:48:00","updated_at":"2021-09-23 16:40:10"}</t>
+    <t xml:space="preserve">SELECT
+ b.id,
+ b.merchant_id,
+ b.name,
+ b.card_no,
+ b.register_no,
+ b.qualification_no,
+ b.company_name,
+ b.sign_url,
+ b.register_url,
+ b.qualification_url 
+FROM
+ `mf_merchant_admin` a
+ INNER JOIN mf_merchant_pharmacist b ON a.id = b.admin_id 
+WHERE
+ a.account = </t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
     <t>200</t>
-  </si>
-  <si>
-    <t>[{"id": 1357, "shop_id": 27, "shop_name": "安徽德胜大药房-双岗店", "user_drugs_name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "diag_id": "21553344682942", "prescription_url": "upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png", "status": 4, "remark": "", "created_at": "1630463783", "user_drug": {"id": 378, "order_id": 1357, "name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "birthday": "1988-12-31", "sex": 1, "age": 33, "address": "hsajijwhhyjjm", "is_diagnosis": 0, "is_allergy": 0, "is_taboo": 1, "is_adverse": 0, "created_at": "1630463783"}, "disease": [{"order_id": 1357, "disease_id": "97648", "disease_name": "中耳炎"}]}]</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -95,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -138,59 +150,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -199,9 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +172,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -221,9 +202,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +301,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,7 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,133 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,41 +512,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,9 +536,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,11 +569,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,16 +627,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,115 +645,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1163,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1228,8 +1240,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -1279,7 +1290,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
@@ -1527,7 +1538,7 @@
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="/backend/merchant_pharmacist/info" tooltip="http://mf-backend.lyky.xyz:8188/backend/merchant_pharmacist/info"/>
+    <hyperlink ref="D2" r:id="rId1" display="backend/merchant_pharmacist/info" tooltip="http://mf-backend.lyky.xyz:8188/backend/merchant_pharmacist/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1541,17 +1552,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" ht="378" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1570,7 +1575,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
